--- a/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H2">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I2">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J2">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N2">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O2">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P2">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q2">
-        <v>83.82506980824989</v>
+        <v>88.83136503595024</v>
       </c>
       <c r="R2">
-        <v>83.82506980824989</v>
+        <v>355.325460143801</v>
       </c>
       <c r="S2">
-        <v>0.0003071733820992648</v>
+        <v>0.0002669070536238332</v>
       </c>
       <c r="T2">
-        <v>0.0003071733820992648</v>
+        <v>0.0001273378471318377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H3">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I3">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J3">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N3">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O3">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P3">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q3">
-        <v>445.3855154319451</v>
+        <v>499.9553468210457</v>
       </c>
       <c r="R3">
-        <v>445.3855154319451</v>
+        <v>2999.732080926274</v>
       </c>
       <c r="S3">
-        <v>0.001632096166769792</v>
+        <v>0.001502190228749528</v>
       </c>
       <c r="T3">
-        <v>0.001632096166769792</v>
+        <v>0.001075012820648628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H4">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I4">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J4">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N4">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O4">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P4">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q4">
-        <v>291.1794206617952</v>
+        <v>351.896080339969</v>
       </c>
       <c r="R4">
-        <v>291.1794206617952</v>
+        <v>2111.376482039814</v>
       </c>
       <c r="S4">
-        <v>0.001067014529746153</v>
+        <v>0.001057324132611333</v>
       </c>
       <c r="T4">
-        <v>0.001067014529746153</v>
+        <v>0.0007566531697417224</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H5">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I5">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J5">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N5">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O5">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P5">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q5">
-        <v>329.2036744754794</v>
+        <v>370.3257855168356</v>
       </c>
       <c r="R5">
-        <v>329.2036744754794</v>
+        <v>2221.954713101014</v>
       </c>
       <c r="S5">
-        <v>0.001206352781088721</v>
+        <v>0.00111269892400312</v>
       </c>
       <c r="T5">
-        <v>0.001206352781088721</v>
+        <v>0.0007962810474549647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H6">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I6">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J6">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N6">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O6">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P6">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q6">
-        <v>58.79708965856927</v>
+        <v>66.97214713849949</v>
       </c>
       <c r="R6">
-        <v>58.79708965856927</v>
+        <v>401.832882830997</v>
       </c>
       <c r="S6">
-        <v>0.0002154594195904733</v>
+        <v>0.0002012277809798886</v>
       </c>
       <c r="T6">
-        <v>0.0002154594195904733</v>
+        <v>0.0001440046941352616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H7">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I7">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J7">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N7">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O7">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P7">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q7">
-        <v>194.0446711265543</v>
+        <v>224.311820750137</v>
       </c>
       <c r="R7">
-        <v>194.0446711265543</v>
+        <v>897.247283000548</v>
       </c>
       <c r="S7">
-        <v>0.0007110683957034656</v>
+        <v>0.0006739782411897732</v>
       </c>
       <c r="T7">
-        <v>0.0007110683957034656</v>
+        <v>0.000321546160289054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H8">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N8">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O8">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P8">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q8">
-        <v>11.29196279879921</v>
+        <v>12.56619285096117</v>
       </c>
       <c r="R8">
-        <v>11.29196279879921</v>
+        <v>75.39715710576699</v>
       </c>
       <c r="S8">
-        <v>4.137891458224424E-05</v>
+        <v>3.775699616640527E-05</v>
       </c>
       <c r="T8">
-        <v>4.137891458224424E-05</v>
+        <v>2.702004990530033E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H9">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N9">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O9">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P9">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q9">
-        <v>59.99728581062946</v>
+        <v>70.72429093575089</v>
       </c>
       <c r="R9">
-        <v>59.99728581062946</v>
+        <v>636.518618421758</v>
       </c>
       <c r="S9">
-        <v>0.0002198574870427782</v>
+        <v>0.0002125016553067326</v>
       </c>
       <c r="T9">
-        <v>0.0002198574870427782</v>
+        <v>0.0002281089300393956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H10">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J10">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N10">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O10">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P10">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q10">
-        <v>39.22438947453522</v>
+        <v>49.77964716921533</v>
       </c>
       <c r="R10">
-        <v>39.22438947453522</v>
+        <v>448.016824522938</v>
       </c>
       <c r="S10">
-        <v>0.000143736097127425</v>
+        <v>0.0001495703567201985</v>
       </c>
       <c r="T10">
-        <v>0.000143736097127425</v>
+        <v>0.0001605556153800664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H11">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J11">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N11">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O11">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P11">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q11">
-        <v>44.3465857399055</v>
+        <v>52.38673566037087</v>
       </c>
       <c r="R11">
-        <v>44.3465857399055</v>
+        <v>471.480620943338</v>
       </c>
       <c r="S11">
-        <v>0.0001625061662035281</v>
+        <v>0.0001574037420051068</v>
       </c>
       <c r="T11">
-        <v>0.0001625061662035281</v>
+        <v>0.000168964326989148</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H12">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J12">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N12">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O12">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P12">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q12">
-        <v>7.920477139130074</v>
+        <v>9.473961322610998</v>
       </c>
       <c r="R12">
-        <v>7.920477139130074</v>
+        <v>85.26565190349899</v>
       </c>
       <c r="S12">
-        <v>2.902424962164537E-05</v>
+        <v>2.846592644096933E-05</v>
       </c>
       <c r="T12">
-        <v>2.902424962164537E-05</v>
+        <v>3.055661855272113E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H13">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J13">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N13">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O13">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P13">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q13">
-        <v>26.13949755936416</v>
+        <v>31.73142275991933</v>
       </c>
       <c r="R13">
-        <v>26.13949755936416</v>
+        <v>190.388536559516</v>
       </c>
       <c r="S13">
-        <v>9.578707050352059E-05</v>
+        <v>9.534178105576502E-05</v>
       </c>
       <c r="T13">
-        <v>9.578707050352059E-05</v>
+        <v>6.822946589377095E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H14">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I14">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J14">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N14">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O14">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P14">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q14">
-        <v>5776.939561349641</v>
+        <v>7501.044550799478</v>
       </c>
       <c r="R14">
-        <v>5776.939561349641</v>
+        <v>45006.26730479687</v>
       </c>
       <c r="S14">
-        <v>0.02116934787292199</v>
+        <v>0.02253800444634337</v>
       </c>
       <c r="T14">
-        <v>0.02116934787292199</v>
+        <v>0.0161288785321308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H15">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I15">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J15">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N15">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O15">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P15">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q15">
-        <v>30694.45942647672</v>
+        <v>42216.92786548264</v>
       </c>
       <c r="R15">
-        <v>30694.45942647672</v>
+        <v>379952.3507893438</v>
       </c>
       <c r="S15">
-        <v>0.1124785333946907</v>
+        <v>0.1268470413019736</v>
       </c>
       <c r="T15">
-        <v>0.1124785333946907</v>
+        <v>0.1361633763666003</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H16">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I16">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J16">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N16">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O16">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P16">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q16">
-        <v>20067.09828598845</v>
+        <v>29714.59658211458</v>
       </c>
       <c r="R16">
-        <v>20067.09828598845</v>
+        <v>267431.3692390313</v>
       </c>
       <c r="S16">
-        <v>0.07353502315626795</v>
+        <v>0.08928192671747551</v>
       </c>
       <c r="T16">
-        <v>0.07353502315626795</v>
+        <v>0.09583927591520185</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H17">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I17">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J17">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N17">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O17">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P17">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q17">
-        <v>22687.60091902596</v>
+        <v>31270.82663142013</v>
       </c>
       <c r="R17">
-        <v>22687.60091902596</v>
+        <v>281437.4396827812</v>
       </c>
       <c r="S17">
-        <v>0.08313774294441108</v>
+        <v>0.09395785145479005</v>
       </c>
       <c r="T17">
-        <v>0.08313774294441108</v>
+        <v>0.1008586259397179</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H18">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I18">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J18">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N18">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O18">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P18">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q18">
-        <v>4052.0960390227</v>
+        <v>5655.221656734374</v>
       </c>
       <c r="R18">
-        <v>4052.0960390227</v>
+        <v>50896.99491060938</v>
       </c>
       <c r="S18">
-        <v>0.01484873257779425</v>
+        <v>0.01699195491792566</v>
       </c>
       <c r="T18">
-        <v>0.01484873257779425</v>
+        <v>0.01823993629607677</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H19">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I19">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J19">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N19">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O19">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P19">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q19">
-        <v>13372.90073082346</v>
+        <v>18941.20348186458</v>
       </c>
       <c r="R19">
-        <v>13372.90073082346</v>
+        <v>113647.2208911875</v>
       </c>
       <c r="S19">
-        <v>0.0490044226072388</v>
+        <v>0.05691166415587531</v>
       </c>
       <c r="T19">
-        <v>0.0490044226072388</v>
+        <v>0.04072771040652009</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H20">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I20">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J20">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N20">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O20">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P20">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q20">
-        <v>10279.09744202582</v>
+        <v>10655.49359144642</v>
       </c>
       <c r="R20">
-        <v>10279.09744202582</v>
+        <v>63932.9615486785</v>
       </c>
       <c r="S20">
-        <v>0.03766731281486174</v>
+        <v>0.03201601594492683</v>
       </c>
       <c r="T20">
-        <v>0.03766731281486174</v>
+        <v>0.02291163059657072</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H21">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I21">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J21">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N21">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O21">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P21">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q21">
-        <v>54615.65523135757</v>
+        <v>59970.60826325325</v>
       </c>
       <c r="R21">
-        <v>54615.65523135757</v>
+        <v>539735.4743692792</v>
       </c>
       <c r="S21">
-        <v>0.2001367320225292</v>
+        <v>0.1801906156580632</v>
       </c>
       <c r="T21">
-        <v>0.2001367320225292</v>
+        <v>0.1934247922990109</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H22">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I22">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J22">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N22">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O22">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P22">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q22">
-        <v>35706.04408611714</v>
+        <v>42210.6136430547</v>
       </c>
       <c r="R22">
-        <v>35706.04408611714</v>
+        <v>379895.5227874923</v>
       </c>
       <c r="S22">
-        <v>0.1308432709737942</v>
+        <v>0.1268280692811846</v>
       </c>
       <c r="T22">
-        <v>0.1308432709737942</v>
+        <v>0.1361430109376506</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H23">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I23">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J23">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N23">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O23">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P23">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q23">
-        <v>40368.7900999918</v>
+        <v>44421.29232985496</v>
       </c>
       <c r="R23">
-        <v>40368.7900999918</v>
+        <v>399791.6309686946</v>
       </c>
       <c r="S23">
-        <v>0.1479297042595411</v>
+        <v>0.1334703823264032</v>
       </c>
       <c r="T23">
-        <v>0.1479297042595411</v>
+        <v>0.1432731714982565</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H24">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I24">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J24">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N24">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O24">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P24">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q24">
-        <v>7210.026967952253</v>
+        <v>8033.438238294366</v>
       </c>
       <c r="R24">
-        <v>7210.026967952253</v>
+        <v>72300.9441446493</v>
       </c>
       <c r="S24">
-        <v>0.02642083536391916</v>
+        <v>0.02413766049620459</v>
       </c>
       <c r="T24">
-        <v>0.02642083536391916</v>
+        <v>0.0259104612690938</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H25">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I25">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J25">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N25">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O25">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P25">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q25">
-        <v>23794.83950539341</v>
+        <v>26906.63559567572</v>
       </c>
       <c r="R25">
-        <v>23794.83950539341</v>
+        <v>161439.8135740543</v>
       </c>
       <c r="S25">
-        <v>0.08719517137415544</v>
+        <v>0.08084499013232049</v>
       </c>
       <c r="T25">
-        <v>0.08719517137415544</v>
+        <v>0.05785512328209096</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H26">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I26">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J26">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N26">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O26">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P26">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q26">
-        <v>77.14496062068771</v>
+        <v>88.41373211384933</v>
       </c>
       <c r="R26">
-        <v>77.14496062068771</v>
+        <v>530.482392683096</v>
       </c>
       <c r="S26">
-        <v>0.0002826944077705861</v>
+        <v>0.000265652213369052</v>
       </c>
       <c r="T26">
-        <v>0.0002826944077705861</v>
+        <v>0.0001901087690093295</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H27">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I27">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J27">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N27">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O27">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P27">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q27">
-        <v>409.8922688357909</v>
+        <v>497.6048503232338</v>
       </c>
       <c r="R27">
-        <v>409.8922688357909</v>
+        <v>4478.443652909104</v>
       </c>
       <c r="S27">
-        <v>0.001502032683094042</v>
+        <v>0.00149512781228739</v>
       </c>
       <c r="T27">
-        <v>0.001502032683094042</v>
+        <v>0.001604938112320735</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H28">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I28">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J28">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N28">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O28">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P28">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q28">
-        <v>267.9750221728785</v>
+        <v>350.2416715818827</v>
       </c>
       <c r="R28">
-        <v>267.9750221728785</v>
+        <v>3152.175044236944</v>
       </c>
       <c r="S28">
-        <v>0.0009819830042165655</v>
+        <v>0.001052353215335306</v>
       </c>
       <c r="T28">
-        <v>0.0009819830042165655</v>
+        <v>0.001129643746196498</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H29">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I29">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J29">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N29">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O29">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P29">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q29">
-        <v>302.9690826585759</v>
+        <v>368.5847311057937</v>
       </c>
       <c r="R29">
-        <v>302.9690826585759</v>
+        <v>3317.262579952144</v>
       </c>
       <c r="S29">
-        <v>0.00111021724174678</v>
+        <v>0.00110746766697063</v>
       </c>
       <c r="T29">
-        <v>0.00111021724174678</v>
+        <v>0.001188806102245418</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H30">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I30">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J30">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N30">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O30">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P30">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q30">
-        <v>54.1114868940432</v>
+        <v>66.65728342456799</v>
       </c>
       <c r="R30">
-        <v>54.1114868940432</v>
+        <v>599.915550821112</v>
       </c>
       <c r="S30">
-        <v>0.0001982892287198242</v>
+        <v>0.0002002817261022617</v>
       </c>
       <c r="T30">
-        <v>0.0001982892287198242</v>
+        <v>0.0002149915029211669</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H31">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I31">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J31">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N31">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O31">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P31">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q31">
-        <v>178.5810443934645</v>
+        <v>223.2572382710347</v>
       </c>
       <c r="R31">
-        <v>178.5810443934645</v>
+        <v>1339.543429626208</v>
       </c>
       <c r="S31">
-        <v>0.000654402597106584</v>
+        <v>0.0006708095912181488</v>
       </c>
       <c r="T31">
-        <v>0.000654402597106584</v>
+        <v>0.0004800516585531691</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H32">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I32">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J32">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N32">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O32">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P32">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q32">
-        <v>82.73112392600108</v>
+        <v>105.1136327943135</v>
       </c>
       <c r="R32">
-        <v>82.73112392600108</v>
+        <v>420.454531177254</v>
       </c>
       <c r="S32">
-        <v>0.0003031646642150733</v>
+        <v>0.0003158295497707773</v>
       </c>
       <c r="T32">
-        <v>0.0003031646642150733</v>
+        <v>0.0001506781270198594</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H33">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I33">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J33">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N33">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O33">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P33">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q33">
-        <v>439.5730818516979</v>
+        <v>591.5942270844661</v>
       </c>
       <c r="R33">
-        <v>439.5730818516979</v>
+        <v>3549.565362506796</v>
       </c>
       <c r="S33">
-        <v>0.001610796752583129</v>
+        <v>0.001777532879609369</v>
       </c>
       <c r="T33">
-        <v>0.001610796752583129</v>
+        <v>0.001272056360195618</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H34">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I34">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J34">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N34">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O34">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P34">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q34">
-        <v>287.3794294544247</v>
+        <v>416.396566186326</v>
       </c>
       <c r="R34">
-        <v>287.3794294544247</v>
+        <v>2498.379397117956</v>
       </c>
       <c r="S34">
-        <v>0.001053089624538372</v>
+        <v>0.001251125439476197</v>
       </c>
       <c r="T34">
-        <v>0.001053089624538372</v>
+        <v>0.0008953432540938322</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H35">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I35">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J35">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N35">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O35">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P35">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q35">
-        <v>324.9074537274689</v>
+        <v>438.2043281371259</v>
       </c>
       <c r="R35">
-        <v>324.9074537274689</v>
+        <v>2629.225968822756</v>
       </c>
       <c r="S35">
-        <v>0.00119060946395901</v>
+        <v>0.001316650105072209</v>
       </c>
       <c r="T35">
-        <v>0.00119060946395901</v>
+        <v>0.0009422346891706427</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H36">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I36">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J36">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N36">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O36">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P36">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q36">
-        <v>58.02976749269049</v>
+        <v>79.24774857297299</v>
       </c>
       <c r="R36">
-        <v>58.02976749269049</v>
+        <v>475.486491437838</v>
       </c>
       <c r="S36">
-        <v>0.0002126476003412692</v>
+        <v>0.0002381116519978543</v>
       </c>
       <c r="T36">
-        <v>0.0002126476003412692</v>
+        <v>0.0001703999092422524</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H37">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I37">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J37">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N37">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O37">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P37">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q37">
-        <v>191.5123216822079</v>
+        <v>265.426860751398</v>
       </c>
       <c r="R37">
-        <v>191.5123216822079</v>
+        <v>1061.707443005592</v>
       </c>
       <c r="S37">
-        <v>0.0007017887095039019</v>
+        <v>0.0007975144964518808</v>
       </c>
       <c r="T37">
-        <v>0.0007017887095039019</v>
+        <v>0.0003804836839484185</v>
       </c>
     </row>
   </sheetData>
